--- a/data/landings/cdfw/public/fish_bulletins/raw/fb159/raw/Table18.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb159/raw/Table18.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb159/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb159/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915C7640-4C06-B840-A730-4204D7D88424}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24A1C70-B5D4-9C4B-98A4-3282BA7B568B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16940" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,12 +516,12 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.33203125" style="3" customWidth="1"/>
     <col min="5" max="7" width="10.83203125" style="1"/>
@@ -1249,10 +1249,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" s="3">
         <v>35060753</v>
